--- a/data/trans_orig/KIDM_A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4229BA17-E6C9-49C6-BF8B-98CD34B8888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE55BD64-C922-4F47-AC8B-11E5BF339D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{39BADC40-966B-4FEC-800E-42A91F4ED236}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CF9E246A-2085-429F-98DB-8F6DA779112E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,6 +80,51 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -137,51 +182,6 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
     <t>98,14%</t>
   </si>
   <si>
@@ -239,6 +239,54 @@
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
   </si>
   <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
     <t>97,73%</t>
   </si>
   <si>
@@ -293,54 +341,6 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
     <t>96,35%</t>
   </si>
   <si>
@@ -398,6 +398,54 @@
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
   </si>
   <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
     <t>98,78%</t>
   </si>
   <si>
@@ -446,54 +494,6 @@
     <t>2,39%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
     <t>99,21%</t>
   </si>
   <si>
@@ -533,6 +533,30 @@
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
   </si>
   <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
     <t>98,41%</t>
   </si>
   <si>
@@ -579,30 +603,6 @@
   </si>
   <si>
     <t>2,73%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
   </si>
   <si>
     <t>98,66%</t>
@@ -1048,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB817603-D763-46C0-B4A6-DD3E5243CC48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFA48A9-6738-4099-BE43-EE2B13295A9B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1303,10 +1303,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>360</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7">
-        <v>239458</v>
+        <v>57070</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -1318,10 +1318,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>342</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>230402</v>
+        <v>46698</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -1330,22 +1330,22 @@
         <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="7">
+        <v>157</v>
+      </c>
+      <c r="N7" s="7">
+        <v>103768</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="7">
-        <v>702</v>
-      </c>
-      <c r="N7" s="7">
-        <v>469859</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1354,49 +1354,49 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>5634</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>778</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5306</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>778</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="7">
-        <v>16</v>
-      </c>
-      <c r="N8" s="7">
-        <v>10941</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,102 +1405,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7">
-        <v>245092</v>
+        <v>57070</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="I9" s="7">
-        <v>235708</v>
+        <v>47476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>718</v>
+        <v>158</v>
       </c>
       <c r="N9" s="7">
-        <v>480800</v>
+        <v>104546</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="D10" s="7">
-        <v>57070</v>
+        <v>239458</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7">
+        <v>342</v>
+      </c>
+      <c r="I10" s="7">
+        <v>230402</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="7">
-        <v>70</v>
-      </c>
-      <c r="I10" s="7">
-        <v>46698</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>157</v>
+        <v>702</v>
       </c>
       <c r="N10" s="7">
-        <v>103768</v>
+        <v>469859</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,46 +1509,46 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>5634</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5306</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>778</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>16</v>
+      </c>
+      <c r="N11" s="7">
+        <v>10941</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>778</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>46</v>
@@ -1560,49 +1560,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="D12" s="7">
-        <v>57070</v>
+        <v>245092</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="I12" s="7">
-        <v>47476</v>
+        <v>235708</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>158</v>
+        <v>718</v>
       </c>
       <c r="N12" s="7">
-        <v>104546</v>
+        <v>480800</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1721,13 @@
         <v>302162</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>421</v>
@@ -1736,13 +1736,13 @@
         <v>283184</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>876</v>
@@ -1751,13 +1751,13 @@
         <v>585346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C5B178-A4EA-4FD4-AD88-6CF1DBD3B6E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC4A9BF-FAD7-4BFC-8EF8-37922EC9F359}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2031,10 +2031,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7">
-        <v>244016</v>
+        <v>56813</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>66</v>
@@ -2046,10 +2046,10 @@
         <v>68</v>
       </c>
       <c r="H7" s="7">
-        <v>310</v>
+        <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>217441</v>
+        <v>65424</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>69</v>
@@ -2058,22 +2058,22 @@
         <v>70</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="7">
+        <v>171</v>
+      </c>
+      <c r="N7" s="7">
+        <v>122237</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="7">
-        <v>669</v>
-      </c>
-      <c r="N7" s="7">
-        <v>461458</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,49 +2082,49 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5711</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>790</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="7">
-        <v>5671</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8554</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="N8" s="7">
+        <v>6501</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="7">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7">
-        <v>14225</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,102 +2133,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7">
-        <v>249687</v>
+        <v>62524</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>225995</v>
+        <v>66214</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>690</v>
+        <v>180</v>
       </c>
       <c r="N9" s="7">
-        <v>475683</v>
+        <v>128738</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="D10" s="7">
-        <v>56813</v>
+        <v>244016</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>310</v>
+      </c>
+      <c r="I10" s="7">
+        <v>217441</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="7">
-        <v>92</v>
-      </c>
-      <c r="I10" s="7">
-        <v>65424</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>669</v>
+      </c>
+      <c r="N10" s="7">
+        <v>461458</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="7">
-        <v>171</v>
-      </c>
-      <c r="N10" s="7">
-        <v>122237</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,40 +2237,40 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>5711</v>
+        <v>5671</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>8554</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>790</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>6501</v>
+        <v>14225</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>97</v>
@@ -2288,49 +2288,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>87</v>
+        <v>368</v>
       </c>
       <c r="D12" s="7">
-        <v>62524</v>
+        <v>249687</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="I12" s="7">
-        <v>66214</v>
+        <v>225995</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>180</v>
+        <v>690</v>
       </c>
       <c r="N12" s="7">
-        <v>128738</v>
+        <v>475683</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2449,13 @@
         <v>312212</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>415</v>
@@ -2464,13 +2464,13 @@
         <v>292209</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>870</v>
@@ -2479,13 +2479,13 @@
         <v>604421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905CE244-D7EE-43EB-B4C8-0F3DA615200E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60ABB13-9597-4D0E-B0AB-373DDD7A381E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2759,10 +2759,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7">
-        <v>253538</v>
+        <v>66922</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>119</v>
@@ -2774,10 +2774,10 @@
         <v>121</v>
       </c>
       <c r="H7" s="7">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="I7" s="7">
-        <v>238407</v>
+        <v>80710</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>122</v>
@@ -2786,16 +2786,16 @@
         <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="7">
+        <v>218</v>
+      </c>
+      <c r="N7" s="7">
+        <v>147632</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="M7" s="7">
-        <v>676</v>
-      </c>
-      <c r="N7" s="7">
-        <v>491945</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>125</v>
@@ -2810,10 +2810,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>3130</v>
+        <v>2416</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>127</v>
@@ -2825,28 +2825,28 @@
         <v>129</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>3652</v>
+        <v>1399</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3815</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="M8" s="7">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6782</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>133</v>
@@ -2861,63 +2861,63 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="D9" s="7">
-        <v>256668</v>
+        <v>69338</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
-        <v>339</v>
+        <v>123</v>
       </c>
       <c r="I9" s="7">
-        <v>242059</v>
+        <v>82109</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>686</v>
+        <v>223</v>
       </c>
       <c r="N9" s="7">
-        <v>498727</v>
+        <v>151447</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>97</v>
+        <v>343</v>
       </c>
       <c r="D10" s="7">
-        <v>66922</v>
+        <v>253538</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>135</v>
@@ -2929,10 +2929,10 @@
         <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>121</v>
+        <v>333</v>
       </c>
       <c r="I10" s="7">
-        <v>80710</v>
+        <v>238407</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>138</v>
@@ -2941,16 +2941,16 @@
         <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
-        <v>218</v>
+        <v>676</v>
       </c>
       <c r="N10" s="7">
-        <v>147632</v>
+        <v>491945</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>141</v>
@@ -2965,10 +2965,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2416</v>
+        <v>3130</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>143</v>
@@ -2980,28 +2980,28 @@
         <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>1399</v>
+        <v>3652</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>3815</v>
+        <v>6782</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>149</v>
@@ -3016,49 +3016,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="D12" s="7">
-        <v>69338</v>
+        <v>256668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="I12" s="7">
-        <v>82109</v>
+        <v>242059</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>223</v>
+        <v>686</v>
       </c>
       <c r="N12" s="7">
-        <v>151447</v>
+        <v>498727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3075,7 @@
         <v>320460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>48</v>
@@ -3126,7 +3126,7 @@
         <v>5546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>157</v>
@@ -3177,13 +3177,13 @@
         <v>326006</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>462</v>
@@ -3192,13 +3192,13 @@
         <v>324168</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>909</v>
@@ -3207,13 +3207,13 @@
         <v>650174</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +3232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B97A1CA-4FF2-4E41-9434-E45FB9F18F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F4BFC8-42D3-4270-9FC5-4F35FB11D9A8}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3487,49 +3487,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>223059</v>
+        <v>41376</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7">
+        <v>34365</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="7">
-        <v>222</v>
-      </c>
-      <c r="I7" s="7">
-        <v>166519</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="7">
+        <v>94</v>
+      </c>
+      <c r="N7" s="7">
+        <v>75740</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M7" s="7">
-        <v>476</v>
-      </c>
-      <c r="N7" s="7">
-        <v>389577</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,49 +3538,49 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3603</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2026</v>
+        <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>5630</v>
+        <v>605</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,102 +3589,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7">
-        <v>226662</v>
+        <v>41376</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="I9" s="7">
-        <v>168545</v>
+        <v>34970</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>484</v>
+        <v>95</v>
       </c>
       <c r="N9" s="7">
-        <v>395207</v>
+        <v>76345</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="D10" s="7">
-        <v>41376</v>
+        <v>223059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="I10" s="7">
-        <v>34365</v>
+        <v>166519</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="N10" s="7">
-        <v>75740</v>
+        <v>389577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,46 +3693,46 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>3603</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2026</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>605</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5630</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>605</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>187</v>
@@ -3744,49 +3744,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>41376</v>
+        <v>226662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>34970</v>
+        <v>168545</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="N12" s="7">
-        <v>76345</v>
+        <v>395207</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3905,13 @@
         <v>268038</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>271</v>
@@ -3920,13 +3920,13 @@
         <v>203514</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>579</v>
@@ -3935,13 +3935,13 @@
         <v>471552</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE55BD64-C922-4F47-AC8B-11E5BF339D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19858EAF-6635-4516-96F8-203ED56FEDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CF9E246A-2085-429F-98DB-8F6DA779112E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67E192B2-A915-41CE-BCED-0F6EF8A04315}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="209">
   <si>
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
@@ -68,19 +68,64 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,574 +134,538 @@
     <t>97,82%</t>
   </si>
   <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>98,66%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>99,69%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>99,42%</t>
   </si>
 </sst>
 </file>
@@ -667,7 +676,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -763,39 +772,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -847,7 +856,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -958,13 +967,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -973,6 +975,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1037,19 +1046,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFA48A9-6738-4099-BE43-EE2B13295A9B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA706E8-BD48-477A-B6A0-85B41C744EEA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1303,49 +1332,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>87</v>
-      </c>
-      <c r="D7" s="7">
-        <v>57070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>70</v>
-      </c>
-      <c r="I7" s="7">
-        <v>46698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>157</v>
-      </c>
-      <c r="N7" s="7">
-        <v>103768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,47 +1379,41 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,102 +1422,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7">
-        <v>57070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>71</v>
-      </c>
-      <c r="I9" s="7">
-        <v>47476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>158</v>
-      </c>
-      <c r="N9" s="7">
-        <v>104546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>239458</v>
+        <v>3495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>342</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>230402</v>
+        <v>1508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7">
-        <v>702</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>469859</v>
+        <v>5003</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,49 +1520,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D11" s="7">
-        <v>5634</v>
+        <v>117455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="I11" s="7">
-        <v>5306</v>
+        <v>107211</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>339</v>
       </c>
       <c r="N11" s="7">
-        <v>10941</v>
+        <v>224665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,102 +1571,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="D12" s="7">
-        <v>245092</v>
+        <v>120950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="I12" s="7">
-        <v>235708</v>
+        <v>108719</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>718</v>
+        <v>346</v>
       </c>
       <c r="N12" s="7">
-        <v>480800</v>
+        <v>229668</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>447</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>296528</v>
+        <v>2140</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>277099</v>
+        <v>4577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
-        <v>859</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>573627</v>
+        <v>6717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,49 +1675,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="D14" s="7">
-        <v>5634</v>
+        <v>179072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7">
-        <v>6085</v>
+        <v>169888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
-        <v>17</v>
+        <v>520</v>
       </c>
       <c r="N14" s="7">
-        <v>11719</v>
+        <v>348961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,55 +1726,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>273</v>
+      </c>
+      <c r="D15" s="7">
+        <v>181212</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>257</v>
+      </c>
+      <c r="I15" s="7">
+        <v>174465</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>530</v>
+      </c>
+      <c r="N15" s="7">
+        <v>355678</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5634</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6085</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="7">
+        <v>17</v>
+      </c>
+      <c r="N16" s="7">
+        <v>11719</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>447</v>
+      </c>
+      <c r="D17" s="7">
+        <v>296528</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7">
+        <v>412</v>
+      </c>
+      <c r="I17" s="7">
+        <v>277099</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="7">
+        <v>859</v>
+      </c>
+      <c r="N17" s="7">
+        <v>573627</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>455</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>302162</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>421</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>283184</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>876</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>585346</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1776,8 +1948,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC4A9BF-FAD7-4BFC-8EF8-37922EC9F359}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808B762A-1F10-4550-8B80-31E176A359CF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1793,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2031,49 +2203,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
-      </c>
-      <c r="D7" s="7">
-        <v>56813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>92</v>
-      </c>
-      <c r="I7" s="7">
-        <v>65424</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>171</v>
-      </c>
-      <c r="N7" s="7">
-        <v>122237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,49 +2248,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,102 +2293,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7">
-        <v>62524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>93</v>
-      </c>
-      <c r="I9" s="7">
-        <v>66214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>180</v>
-      </c>
-      <c r="N9" s="7">
-        <v>128738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>244016</v>
+        <v>6969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
-        <v>310</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>217441</v>
+        <v>3015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
-        <v>669</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>461458</v>
+        <v>9984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,49 +2391,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="D11" s="7">
-        <v>5671</v>
+        <v>141236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>8554</v>
+        <v>136349</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>397</v>
       </c>
       <c r="N11" s="7">
-        <v>14225</v>
+        <v>277584</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,102 +2442,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>368</v>
+        <v>213</v>
       </c>
       <c r="D12" s="7">
-        <v>249687</v>
+        <v>148205</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="I12" s="7">
-        <v>225995</v>
+        <v>139364</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>690</v>
+        <v>411</v>
       </c>
       <c r="N12" s="7">
-        <v>475683</v>
+        <v>287568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>438</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>300830</v>
+        <v>4413</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
-        <v>402</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>282865</v>
+        <v>6329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>840</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>583695</v>
+        <v>10742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,49 +2546,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>11382</v>
+        <v>159594</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>9344</v>
+        <v>146517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="N14" s="7">
-        <v>20726</v>
+        <v>306110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,55 +2597,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>242</v>
+      </c>
+      <c r="D15" s="7">
+        <v>164007</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>217</v>
+      </c>
+      <c r="I15" s="7">
+        <v>152846</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>459</v>
+      </c>
+      <c r="N15" s="7">
+        <v>316852</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11382</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9344</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="7">
+        <v>30</v>
+      </c>
+      <c r="N16" s="7">
+        <v>20726</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>438</v>
+      </c>
+      <c r="D17" s="7">
+        <v>300830</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="7">
+        <v>402</v>
+      </c>
+      <c r="I17" s="7">
+        <v>282865</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="7">
+        <v>840</v>
+      </c>
+      <c r="N17" s="7">
+        <v>583695</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>455</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>312212</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>415</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>292209</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>870</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>604421</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2504,8 +2819,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60ABB13-9597-4D0E-B0AB-373DDD7A381E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D341661-96FD-4842-A288-C6FF3FA83F34}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2521,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2759,49 +3074,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
-      </c>
-      <c r="D7" s="7">
-        <v>66922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>121</v>
-      </c>
-      <c r="I7" s="7">
-        <v>80710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>218</v>
-      </c>
-      <c r="N7" s="7">
-        <v>147632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,49 +3119,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,102 +3164,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>100</v>
-      </c>
-      <c r="D9" s="7">
-        <v>69338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>123</v>
-      </c>
-      <c r="I9" s="7">
-        <v>82109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>223</v>
-      </c>
-      <c r="N9" s="7">
-        <v>151447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>343</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>253538</v>
+        <v>3806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>333</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>238407</v>
+        <v>2605</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>676</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>491945</v>
+        <v>6411</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,49 +3262,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>3130</v>
+        <v>160092</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>242</v>
       </c>
       <c r="I11" s="7">
-        <v>3652</v>
+        <v>169630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>466</v>
       </c>
       <c r="N11" s="7">
-        <v>6782</v>
+        <v>329722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,102 +3313,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>256668</v>
+        <v>163898</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="I12" s="7">
-        <v>242059</v>
+        <v>172235</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>686</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>498727</v>
+        <v>336133</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>320460</v>
+        <v>1740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>454</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>319117</v>
+        <v>2446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
-        <v>894</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>639577</v>
+        <v>4186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,49 +3417,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="D14" s="7">
-        <v>5546</v>
+        <v>160367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>5051</v>
+        <v>149487</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>428</v>
       </c>
       <c r="N14" s="7">
-        <v>10597</v>
+        <v>309854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,55 +3468,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>218</v>
+      </c>
+      <c r="D15" s="7">
+        <v>162107</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>216</v>
+      </c>
+      <c r="I15" s="7">
+        <v>151933</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>434</v>
+      </c>
+      <c r="N15" s="7">
+        <v>314040</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5546</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5051</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" s="7">
+        <v>15</v>
+      </c>
+      <c r="N16" s="7">
+        <v>10597</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>440</v>
+      </c>
+      <c r="D17" s="7">
+        <v>320460</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="7">
+        <v>454</v>
+      </c>
+      <c r="I17" s="7">
+        <v>319117</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="7">
+        <v>894</v>
+      </c>
+      <c r="N17" s="7">
+        <v>639577</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>447</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>326006</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>462</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>324168</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>909</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>650174</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3232,8 +3690,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F4BFC8-42D3-4270-9FC5-4F35FB11D9A8}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A7A1F-A7D6-4EF1-AA7C-B50774B7A495}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3249,7 +3707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3487,49 +3945,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
-      </c>
-      <c r="D7" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
-      </c>
-      <c r="I7" s="7">
-        <v>34365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>94</v>
-      </c>
-      <c r="N7" s="7">
-        <v>75740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,47 +3992,41 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,102 +4035,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>34970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>95</v>
-      </c>
-      <c r="N9" s="7">
-        <v>76345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>223059</v>
+        <v>1554</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2213</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="7">
-        <v>222</v>
-      </c>
-      <c r="I10" s="7">
-        <v>166519</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3767</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M10" s="7">
-        <v>476</v>
-      </c>
-      <c r="N10" s="7">
-        <v>389577</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,49 +4133,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="D11" s="7">
-        <v>3603</v>
+        <v>97794</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7">
+        <v>93</v>
+      </c>
+      <c r="I11" s="7">
+        <v>70421</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>210</v>
+      </c>
+      <c r="N11" s="7">
+        <v>168215</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2026</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5630</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,102 +4184,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>226662</v>
+        <v>99348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="I12" s="7">
-        <v>168545</v>
+        <v>72634</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>484</v>
+        <v>215</v>
       </c>
       <c r="N12" s="7">
-        <v>395207</v>
+        <v>171982</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>303</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>264435</v>
+        <v>2050</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>418</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2468</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="7">
-        <v>267</v>
-      </c>
-      <c r="I13" s="7">
-        <v>200883</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13" s="7">
-        <v>570</v>
-      </c>
-      <c r="N13" s="7">
-        <v>465317</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,49 +4288,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>3603</v>
+        <v>166640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="I14" s="7">
-        <v>2631</v>
+        <v>130462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>360</v>
       </c>
       <c r="N14" s="7">
-        <v>6235</v>
+        <v>297102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,55 +4339,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>189</v>
+      </c>
+      <c r="D15" s="7">
+        <v>168690</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>175</v>
+      </c>
+      <c r="I15" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>364</v>
+      </c>
+      <c r="N15" s="7">
+        <v>299570</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3603</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2631</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6235</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>303</v>
+      </c>
+      <c r="D17" s="7">
+        <v>264435</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="7">
+        <v>267</v>
+      </c>
+      <c r="I17" s="7">
+        <v>200883</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M17" s="7">
+        <v>570</v>
+      </c>
+      <c r="N17" s="7">
+        <v>465317</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>308</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>268038</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>271</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>203514</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>579</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>471552</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/KIDM_A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19858EAF-6635-4516-96F8-203ED56FEDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{531FA4E6-D2B6-459D-8E5C-5AC8CA1334FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67E192B2-A915-41CE-BCED-0F6EF8A04315}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{778A9889-5F77-4AD8-A79F-A31A4170F9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="219">
   <si>
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
@@ -89,583 +89,613 @@
     <t>2,89%</t>
   </si>
   <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>98,3%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>99,42%</t>
+    <t>99,36%</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA706E8-BD48-477A-B6A0-85B41C744EEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B539C-A0F2-4231-B425-B7AAC03FB898}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1663,10 +1693,10 @@
         <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1681,13 +1711,13 @@
         <v>179072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -1696,13 +1726,13 @@
         <v>169888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
         <v>520</v>
@@ -1711,13 +1741,13 @@
         <v>348961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1815,13 @@
         <v>5634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1800,13 +1830,13 @@
         <v>6085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -1815,13 +1845,13 @@
         <v>11719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,13 +1866,13 @@
         <v>296528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>412</v>
@@ -1851,13 +1881,13 @@
         <v>277099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>859</v>
@@ -1866,13 +1896,13 @@
         <v>573627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,7 +1958,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808B762A-1F10-4550-8B80-31E176A359CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47301E-DC0F-4F81-8C08-CF4E3258910B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1965,7 +1995,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2346,13 +2376,13 @@
         <v>6969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2361,13 +2391,13 @@
         <v>3015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2376,13 +2406,13 @@
         <v>9984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,28 +2427,28 @@
         <v>141236</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" s="7">
         <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>136349</v>
+        <v>136348</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>397</v>
@@ -2427,13 +2457,13 @@
         <v>277584</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,7 +2490,7 @@
         <v>198</v>
       </c>
       <c r="I12" s="7">
-        <v>139364</v>
+        <v>139363</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>33</v>
@@ -2501,13 +2531,13 @@
         <v>4413</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2516,13 +2546,13 @@
         <v>6329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2531,13 +2561,13 @@
         <v>10742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2582,13 @@
         <v>159594</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>208</v>
@@ -2567,13 +2597,13 @@
         <v>146517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -2582,13 +2612,13 @@
         <v>306110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2686,13 @@
         <v>11382</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2671,13 +2701,13 @@
         <v>9344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -2686,13 +2716,13 @@
         <v>20726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2737,13 @@
         <v>300830</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>402</v>
@@ -2722,13 +2752,13 @@
         <v>282865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>840</v>
@@ -2737,13 +2767,13 @@
         <v>583695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,7 +2829,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D341661-96FD-4842-A288-C6FF3FA83F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5620E20-8650-4522-9B69-6B0317963730}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3217,13 +3247,13 @@
         <v>3806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3232,13 +3262,13 @@
         <v>2605</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3247,13 +3277,13 @@
         <v>6411</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3298,13 @@
         <v>160092</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>242</v>
@@ -3283,13 +3313,13 @@
         <v>169630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -3298,13 +3328,13 @@
         <v>329722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3402,13 @@
         <v>1740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3387,13 +3417,13 @@
         <v>2446</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3402,13 +3432,13 @@
         <v>4186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,10 +3453,10 @@
         <v>160367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>29</v>
@@ -3438,13 +3468,13 @@
         <v>149487</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -3453,13 +3483,13 @@
         <v>309854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3557,13 @@
         <v>5546</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3542,13 +3572,13 @@
         <v>5051</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3557,13 +3587,13 @@
         <v>10597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3608,13 @@
         <v>320460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>454</v>
@@ -3593,13 +3623,13 @@
         <v>319117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>894</v>
@@ -3608,13 +3638,13 @@
         <v>639577</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,7 +3700,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A7A1F-A7D6-4EF1-AA7C-B50774B7A495}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0E521D-C516-4D9F-BC97-EBD16A6CB959}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3707,7 +3737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4088,13 +4118,13 @@
         <v>1554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4103,13 +4133,13 @@
         <v>2213</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4118,13 +4148,13 @@
         <v>3767</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,10 +4169,10 @@
         <v>97794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -4154,13 +4184,13 @@
         <v>70421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -4169,13 +4199,13 @@
         <v>168215</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4273,13 @@
         <v>2050</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4258,13 +4288,13 @@
         <v>418</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4273,13 +4303,13 @@
         <v>2468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4324,13 @@
         <v>166640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>174</v>
@@ -4309,10 +4339,10 @@
         <v>130462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>29</v>
@@ -4324,13 +4354,13 @@
         <v>297102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4428,13 @@
         <v>3603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4413,13 +4443,13 @@
         <v>2631</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4428,13 +4458,13 @@
         <v>6235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4479,13 @@
         <v>264435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>267</v>
@@ -4464,13 +4494,13 @@
         <v>200883</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>570</v>
@@ -4479,13 +4509,13 @@
         <v>465317</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,7 +4571,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531FA4E6-D2B6-459D-8E5C-5AC8CA1334FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA032E97-A43E-46AD-80D2-FC73403DC8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{778A9889-5F77-4AD8-A79F-A31A4170F9BF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD1F3F64-3832-45D6-A800-03B644D7D5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="205">
   <si>
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -86,616 +86,574 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099B539C-A0F2-4231-B425-B7AAC03FB898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CB1405-4FBD-47FF-A865-E5D309543262}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1499,10 +1457,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3495</v>
+        <v>1508</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>15</v>
@@ -1514,10 +1472,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>1508</v>
+        <v>3495</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>18</v>
@@ -1550,10 +1508,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D11" s="7">
-        <v>117455</v>
+        <v>107211</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>24</v>
@@ -1565,10 +1523,10 @@
         <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="I11" s="7">
-        <v>107211</v>
+        <v>117455</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>27</v>
@@ -1601,25 +1559,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>164</v>
+      </c>
+      <c r="D12" s="7">
+        <v>108719</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
         <v>182</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>120950</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>164</v>
-      </c>
-      <c r="I12" s="7">
-        <v>108719</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>33</v>
@@ -1654,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>2140</v>
+        <v>4577</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>35</v>
@@ -1669,10 +1627,10 @@
         <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>4577</v>
+        <v>2140</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>38</v>
@@ -1705,10 +1663,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D14" s="7">
-        <v>179072</v>
+        <v>169888</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>44</v>
@@ -1720,10 +1678,10 @@
         <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="I14" s="7">
-        <v>169888</v>
+        <v>179072</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>47</v>
@@ -1738,7 +1696,7 @@
         <v>520</v>
       </c>
       <c r="N14" s="7">
-        <v>348961</v>
+        <v>348960</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>50</v>
@@ -1756,25 +1714,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>257</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174465</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>273</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>181212</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>257</v>
-      </c>
-      <c r="I15" s="7">
-        <v>174465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>33</v>
@@ -1789,7 +1747,7 @@
         <v>530</v>
       </c>
       <c r="N15" s="7">
-        <v>355678</v>
+        <v>355677</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>33</v>
@@ -1809,10 +1767,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>5634</v>
+        <v>6085</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>53</v>
@@ -1824,10 +1782,10 @@
         <v>55</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>6085</v>
+        <v>5634</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>56</v>
@@ -1860,10 +1818,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="D17" s="7">
-        <v>296528</v>
+        <v>277099</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>62</v>
@@ -1875,10 +1833,10 @@
         <v>64</v>
       </c>
       <c r="H17" s="7">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="I17" s="7">
-        <v>277099</v>
+        <v>296528</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>65</v>
@@ -1911,25 +1869,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>421</v>
+      </c>
+      <c r="D18" s="7">
+        <v>283184</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>455</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>302162</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>421</v>
-      </c>
-      <c r="I18" s="7">
-        <v>283184</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>33</v>
@@ -1978,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47301E-DC0F-4F81-8C08-CF4E3258910B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749F7F85-4348-4BA1-A374-CAFF7C91C415}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2370,10 +2328,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>6969</v>
+        <v>3015</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>73</v>
@@ -2385,10 +2343,10 @@
         <v>75</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>3015</v>
+        <v>6969</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>76</v>
@@ -2406,13 +2364,13 @@
         <v>9984</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,34 +2379,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>194</v>
+      </c>
+      <c r="D11" s="7">
+        <v>136348</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="7">
         <v>203</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>141236</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="7">
-        <v>194</v>
-      </c>
-      <c r="I11" s="7">
-        <v>136348</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>397</v>
@@ -2457,13 +2415,13 @@
         <v>277584</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,25 +2430,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>198</v>
+      </c>
+      <c r="D12" s="7">
+        <v>139363</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
         <v>213</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>148205</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>198</v>
-      </c>
-      <c r="I12" s="7">
-        <v>139363</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>33</v>
@@ -2525,31 +2483,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6329</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4413</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6329</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>94</v>
@@ -2576,10 +2534,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>159594</v>
+        <v>146517</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -2588,22 +2546,22 @@
         <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="I14" s="7">
-        <v>146517</v>
+        <v>159594</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -2612,13 +2570,13 @@
         <v>306110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,25 +2585,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>217</v>
+      </c>
+      <c r="D15" s="7">
+        <v>152846</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>164007</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>217</v>
-      </c>
-      <c r="I15" s="7">
-        <v>152846</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>33</v>
@@ -2680,34 +2638,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9344</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
         <v>17</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>11382</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9344</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -2716,13 +2674,13 @@
         <v>20726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,34 +2689,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>402</v>
+      </c>
+      <c r="D17" s="7">
+        <v>282865</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="7">
         <v>438</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>300830</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="7">
-        <v>402</v>
-      </c>
-      <c r="I17" s="7">
-        <v>282865</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>840</v>
@@ -2767,10 +2725,10 @@
         <v>583695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>122</v>
@@ -2782,25 +2740,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>415</v>
+      </c>
+      <c r="D18" s="7">
+        <v>292209</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>455</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>312212</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>415</v>
-      </c>
-      <c r="I18" s="7">
-        <v>292209</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>33</v>
@@ -2849,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5620E20-8650-4522-9B69-6B0317963730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FA5A04-C31E-4C01-A759-214343E8833D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,10 +3199,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3806</v>
+        <v>2605</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -3256,19 +3214,19 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>2605</v>
+        <v>3806</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3277,13 +3235,13 @@
         <v>6411</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,34 +3250,34 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>242</v>
+      </c>
+      <c r="D11" s="7">
+        <v>169630</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>224</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>160092</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="7">
-        <v>242</v>
-      </c>
-      <c r="I11" s="7">
-        <v>169630</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -3328,13 +3286,13 @@
         <v>329722</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,25 +3301,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>246</v>
+      </c>
+      <c r="D12" s="7">
+        <v>172235</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
         <v>229</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>163898</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>246</v>
-      </c>
-      <c r="I12" s="7">
-        <v>172235</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>33</v>
@@ -3396,34 +3354,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2446</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1740</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2446</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3432,13 +3390,13 @@
         <v>4186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,34 +3405,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
+        <v>212</v>
+      </c>
+      <c r="D14" s="7">
+        <v>149487</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7">
         <v>216</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>160367</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="7">
-        <v>212</v>
-      </c>
-      <c r="I14" s="7">
-        <v>149487</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -3483,13 +3441,13 @@
         <v>309854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,25 +3456,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>216</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151933</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>218</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>162107</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>216</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151933</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>33</v>
@@ -3551,34 +3509,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5051</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>5546</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5051</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3587,13 +3545,13 @@
         <v>10597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,34 +3560,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>454</v>
+      </c>
+      <c r="D17" s="7">
+        <v>319117</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="7">
         <v>440</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>320460</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="7">
-        <v>454</v>
-      </c>
-      <c r="I17" s="7">
-        <v>319117</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>894</v>
@@ -3638,13 +3596,13 @@
         <v>639577</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,25 +3611,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>462</v>
+      </c>
+      <c r="D18" s="7">
+        <v>324168</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>447</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>326006</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>462</v>
-      </c>
-      <c r="I18" s="7">
-        <v>324168</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>33</v>
@@ -3720,7 +3678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0E521D-C516-4D9F-BC97-EBD16A6CB959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED6F606-8CE6-45C3-93B9-5FE11A2D82B6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3737,7 +3695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4112,49 +4070,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2234</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1554</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
       <c r="I10" s="7">
-        <v>2213</v>
+        <v>1623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>3767</v>
+        <v>3857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,49 +4121,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7">
+        <v>66523</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="7">
         <v>117</v>
       </c>
-      <c r="D11" s="7">
-        <v>97794</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7">
-        <v>93</v>
-      </c>
       <c r="I11" s="7">
-        <v>70421</v>
+        <v>97742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
       </c>
       <c r="N11" s="7">
-        <v>168215</v>
+        <v>164265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,25 +4172,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>96</v>
+      </c>
+      <c r="D12" s="7">
+        <v>68757</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
         <v>119</v>
       </c>
-      <c r="D12" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>96</v>
-      </c>
       <c r="I12" s="7">
-        <v>72634</v>
+        <v>99365</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>33</v>
@@ -4247,7 +4205,7 @@
         <v>215</v>
       </c>
       <c r="N12" s="7">
-        <v>171982</v>
+        <v>168122</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>33</v>
@@ -4267,49 +4225,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>416</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
-        <v>2050</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
       <c r="I13" s="7">
-        <v>418</v>
+        <v>1945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>2468</v>
+        <v>2361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,49 +4276,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
+        <v>174</v>
+      </c>
+      <c r="D14" s="7">
+        <v>142131</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7">
         <v>186</v>
       </c>
-      <c r="D14" s="7">
-        <v>166640</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="7">
-        <v>174</v>
-      </c>
       <c r="I14" s="7">
-        <v>130462</v>
+        <v>171706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
       </c>
       <c r="N14" s="7">
-        <v>297102</v>
+        <v>313837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,25 +4327,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>175</v>
+      </c>
+      <c r="D15" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>189</v>
       </c>
-      <c r="D15" s="7">
-        <v>168690</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>175</v>
-      </c>
       <c r="I15" s="7">
-        <v>130880</v>
+        <v>173651</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>33</v>
@@ -4402,7 +4360,7 @@
         <v>364</v>
       </c>
       <c r="N15" s="7">
-        <v>299570</v>
+        <v>316198</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>33</v>
@@ -4422,49 +4380,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2650</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
-        <v>3603</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
       <c r="I16" s="7">
-        <v>2631</v>
+        <v>3568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>6235</v>
+        <v>6218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,49 +4431,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>267</v>
+      </c>
+      <c r="D17" s="7">
+        <v>208654</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="7">
         <v>303</v>
       </c>
-      <c r="D17" s="7">
-        <v>264435</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="7">
-        <v>267</v>
-      </c>
       <c r="I17" s="7">
-        <v>200883</v>
+        <v>269448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>570</v>
       </c>
       <c r="N17" s="7">
-        <v>465317</v>
+        <v>478102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,25 +4482,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>271</v>
+      </c>
+      <c r="D18" s="7">
+        <v>211304</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>308</v>
       </c>
-      <c r="D18" s="7">
-        <v>268038</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>271</v>
-      </c>
       <c r="I18" s="7">
-        <v>203514</v>
+        <v>273016</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>33</v>
@@ -4557,7 +4515,7 @@
         <v>579</v>
       </c>
       <c r="N18" s="7">
-        <v>471552</v>
+        <v>484320</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>33</v>
